--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gas6-Mertk.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gas6-Mertk.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.1454079383868</v>
+        <v>17.651035</v>
       </c>
       <c r="H2">
-        <v>17.1454079383868</v>
+        <v>35.30207</v>
       </c>
       <c r="I2">
-        <v>0.1370544341315852</v>
+        <v>0.1325947993186649</v>
       </c>
       <c r="J2">
-        <v>0.1370544341315852</v>
+        <v>0.09359607745031152</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.77455065173158</v>
+        <v>7.774898</v>
       </c>
       <c r="N2">
-        <v>7.77455065173158</v>
+        <v>15.549796</v>
       </c>
       <c r="O2">
-        <v>0.08009360261934967</v>
+        <v>0.07439327564760004</v>
       </c>
       <c r="P2">
-        <v>0.08009360261934967</v>
+        <v>0.05172958627105516</v>
       </c>
       <c r="Q2">
-        <v>133.2978424615889</v>
+        <v>137.23499671943</v>
       </c>
       <c r="R2">
-        <v>133.2978424615889</v>
+        <v>548.93998687772</v>
       </c>
       <c r="S2">
-        <v>0.01097718338455502</v>
+        <v>0.009864161455151651</v>
       </c>
       <c r="T2">
-        <v>0.01097718338455502</v>
+        <v>0.004841686363098251</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.1454079383868</v>
+        <v>17.651035</v>
       </c>
       <c r="H3">
-        <v>17.1454079383868</v>
+        <v>35.30207</v>
       </c>
       <c r="I3">
-        <v>0.1370544341315852</v>
+        <v>0.1325947993186649</v>
       </c>
       <c r="J3">
-        <v>0.1370544341315852</v>
+        <v>0.09359607745031152</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.520804291354764</v>
+        <v>0.5569553333333334</v>
       </c>
       <c r="N3">
-        <v>0.520804291354764</v>
+        <v>1.670866</v>
       </c>
       <c r="O3">
-        <v>0.005365337988367207</v>
+        <v>0.005329167229726696</v>
       </c>
       <c r="P3">
-        <v>0.005365337988367207</v>
+        <v>0.005558478509581273</v>
       </c>
       <c r="Q3">
-        <v>8.929402031339883</v>
+        <v>9.830838082103334</v>
       </c>
       <c r="R3">
-        <v>8.929402031339883</v>
+        <v>58.98502849262001</v>
       </c>
       <c r="S3">
-        <v>0.0007353433619203652</v>
+        <v>0.0007066198593612169</v>
       </c>
       <c r="T3">
-        <v>0.0007353433619203652</v>
+        <v>0.0005202517850886611</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.1454079383868</v>
+        <v>17.651035</v>
       </c>
       <c r="H4">
-        <v>17.1454079383868</v>
+        <v>35.30207</v>
       </c>
       <c r="I4">
-        <v>0.1370544341315852</v>
+        <v>0.1325947993186649</v>
       </c>
       <c r="J4">
-        <v>0.1370544341315852</v>
+        <v>0.09359607745031152</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.9607644503482</v>
+        <v>39.39179933333333</v>
       </c>
       <c r="N4">
-        <v>33.9607644503482</v>
+        <v>118.175398</v>
       </c>
       <c r="O4">
-        <v>0.3498645895283616</v>
+        <v>0.3769161969789975</v>
       </c>
       <c r="P4">
-        <v>0.3498645895283616</v>
+        <v>0.3931347038866155</v>
       </c>
       <c r="Q4">
-        <v>582.2711604006843</v>
+        <v>695.3060287456433</v>
       </c>
       <c r="R4">
-        <v>582.2711604006843</v>
+        <v>4171.83617247386</v>
       </c>
       <c r="S4">
-        <v>0.04795049334048893</v>
+        <v>0.04997712749838457</v>
       </c>
       <c r="T4">
-        <v>0.04795049334048893</v>
+        <v>0.03679586619337696</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.1454079383868</v>
+        <v>17.651035</v>
       </c>
       <c r="H5">
-        <v>17.1454079383868</v>
+        <v>35.30207</v>
       </c>
       <c r="I5">
-        <v>0.1370544341315852</v>
+        <v>0.1325947993186649</v>
       </c>
       <c r="J5">
-        <v>0.1370544341315852</v>
+        <v>0.09359607745031152</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.4391077828803</v>
+        <v>42.72912033333333</v>
       </c>
       <c r="N5">
-        <v>41.4391077828803</v>
+        <v>128.187361</v>
       </c>
       <c r="O5">
-        <v>0.4269066574186113</v>
+        <v>0.4088489941780765</v>
       </c>
       <c r="P5">
-        <v>0.4269066574186113</v>
+        <v>0.4264415526549925</v>
       </c>
       <c r="Q5">
-        <v>710.4904075402621</v>
+        <v>754.2131985228783</v>
       </c>
       <c r="R5">
-        <v>710.4904075402621</v>
+        <v>4525.279191137271</v>
       </c>
       <c r="S5">
-        <v>0.05850945035951426</v>
+        <v>0.05421125033468006</v>
       </c>
       <c r="T5">
-        <v>0.05850945035951426</v>
+        <v>0.03991325659032777</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.1454079383868</v>
+        <v>17.651035</v>
       </c>
       <c r="H6">
-        <v>17.1454079383868</v>
+        <v>35.30207</v>
       </c>
       <c r="I6">
-        <v>0.1370544341315852</v>
+        <v>0.1325947993186649</v>
       </c>
       <c r="J6">
-        <v>0.1370544341315852</v>
+        <v>0.09359607745031152</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.39966390936868</v>
+        <v>8.898325</v>
       </c>
       <c r="N6">
-        <v>8.39966390936868</v>
+        <v>26.694975</v>
       </c>
       <c r="O6">
-        <v>0.08653353401758704</v>
+        <v>0.08514266611946943</v>
       </c>
       <c r="P6">
-        <v>0.08653353401758704</v>
+        <v>0.08880631053077227</v>
       </c>
       <c r="Q6">
-        <v>144.0156642714709</v>
+        <v>157.064646016375</v>
       </c>
       <c r="R6">
-        <v>144.0156642714709</v>
+        <v>942.38787609825</v>
       </c>
       <c r="S6">
-        <v>0.01185980453818667</v>
+        <v>0.01128947472756714</v>
       </c>
       <c r="T6">
-        <v>0.01185980453818667</v>
+        <v>0.008311922318514577</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.1454079383868</v>
+        <v>17.651035</v>
       </c>
       <c r="H7">
-        <v>17.1454079383868</v>
+        <v>35.30207</v>
       </c>
       <c r="I7">
-        <v>0.1370544341315852</v>
+        <v>0.1325947993186649</v>
       </c>
       <c r="J7">
-        <v>0.1370544341315852</v>
+        <v>0.09359607745031152</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.9734189600097</v>
+        <v>5.159665</v>
       </c>
       <c r="N7">
-        <v>4.9734189600097</v>
+        <v>10.31933</v>
       </c>
       <c r="O7">
-        <v>0.05123627842772321</v>
+        <v>0.04936969984612972</v>
       </c>
       <c r="P7">
-        <v>0.05123627842772321</v>
+        <v>0.03432936814698325</v>
       </c>
       <c r="Q7">
-        <v>85.27129691787373</v>
+        <v>91.07342750327501</v>
       </c>
       <c r="R7">
-        <v>85.27129691787373</v>
+        <v>364.2937100131001</v>
       </c>
       <c r="S7">
-        <v>0.007022159146919949</v>
+        <v>0.006546165443520294</v>
       </c>
       <c r="T7">
-        <v>0.007022159146919949</v>
+        <v>0.003213094199905302</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>34.7235762397842</v>
+        <v>35.25263733333333</v>
       </c>
       <c r="H8">
-        <v>34.7235762397842</v>
+        <v>105.757912</v>
       </c>
       <c r="I8">
-        <v>0.2775682042486505</v>
+        <v>0.2648182598168894</v>
       </c>
       <c r="J8">
-        <v>0.2775682042486505</v>
+        <v>0.2803950511268952</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.77455065173158</v>
+        <v>7.774898</v>
       </c>
       <c r="N8">
-        <v>7.77455065173158</v>
+        <v>15.549796</v>
       </c>
       <c r="O8">
-        <v>0.08009360261934967</v>
+        <v>0.07439327564760004</v>
       </c>
       <c r="P8">
-        <v>0.08009360261934967</v>
+        <v>0.05172958627105516</v>
       </c>
       <c r="Q8">
-        <v>269.9602022854655</v>
+        <v>274.0856594976587</v>
       </c>
       <c r="R8">
-        <v>269.9602022854655</v>
+        <v>1644.513956985952</v>
       </c>
       <c r="S8">
-        <v>0.0222314374508579</v>
+        <v>0.01970069779907562</v>
       </c>
       <c r="T8">
-        <v>0.0222314374508579</v>
+        <v>0.01450471998724565</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>34.7235762397842</v>
+        <v>35.25263733333333</v>
       </c>
       <c r="H9">
-        <v>34.7235762397842</v>
+        <v>105.757912</v>
       </c>
       <c r="I9">
-        <v>0.2775682042486505</v>
+        <v>0.2648182598168894</v>
       </c>
       <c r="J9">
-        <v>0.2775682042486505</v>
+        <v>0.2803950511268952</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.520804291354764</v>
+        <v>0.5569553333333334</v>
       </c>
       <c r="N9">
-        <v>0.520804291354764</v>
+        <v>1.670866</v>
       </c>
       <c r="O9">
-        <v>0.005365337988367207</v>
+        <v>0.005329167229726696</v>
       </c>
       <c r="P9">
-        <v>0.005365337988367207</v>
+        <v>0.005558478509581273</v>
       </c>
       <c r="Q9">
-        <v>18.08418751686393</v>
+        <v>19.63414437686578</v>
       </c>
       <c r="R9">
-        <v>18.08418751686393</v>
+        <v>176.707299391792</v>
       </c>
       <c r="S9">
-        <v>0.001489247230618152</v>
+        <v>0.001411260792049417</v>
       </c>
       <c r="T9">
-        <v>0.001489247230618152</v>
+        <v>0.001558569865881789</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.7235762397842</v>
+        <v>35.25263733333333</v>
       </c>
       <c r="H10">
-        <v>34.7235762397842</v>
+        <v>105.757912</v>
       </c>
       <c r="I10">
-        <v>0.2775682042486505</v>
+        <v>0.2648182598168894</v>
       </c>
       <c r="J10">
-        <v>0.2775682042486505</v>
+        <v>0.2803950511268952</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.9607644503482</v>
+        <v>39.39179933333333</v>
       </c>
       <c r="N10">
-        <v>33.9607644503482</v>
+        <v>118.175398</v>
       </c>
       <c r="O10">
-        <v>0.3498645895283616</v>
+        <v>0.3769161969789975</v>
       </c>
       <c r="P10">
-        <v>0.3498645895283616</v>
+        <v>0.3931347038866155</v>
       </c>
       <c r="Q10">
-        <v>1179.239193553019</v>
+        <v>1388.664815805442</v>
       </c>
       <c r="R10">
-        <v>1179.239193553019</v>
+        <v>12497.98334224898</v>
       </c>
       <c r="S10">
-        <v>0.09711128584557854</v>
+        <v>0.09981429138077803</v>
       </c>
       <c r="T10">
-        <v>0.09711128584557854</v>
+        <v>0.1102330253960443</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.7235762397842</v>
+        <v>35.25263733333333</v>
       </c>
       <c r="H11">
-        <v>34.7235762397842</v>
+        <v>105.757912</v>
       </c>
       <c r="I11">
-        <v>0.2775682042486505</v>
+        <v>0.2648182598168894</v>
       </c>
       <c r="J11">
-        <v>0.2775682042486505</v>
+        <v>0.2803950511268952</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.4391077828803</v>
+        <v>42.72912033333333</v>
       </c>
       <c r="N11">
-        <v>41.4391077828803</v>
+        <v>128.187361</v>
       </c>
       <c r="O11">
-        <v>0.4269066574186113</v>
+        <v>0.4088489941780765</v>
       </c>
       <c r="P11">
-        <v>0.4269066574186113</v>
+        <v>0.4264415526549925</v>
       </c>
       <c r="Q11">
-        <v>1438.914018407479</v>
+        <v>1506.314182683359</v>
       </c>
       <c r="R11">
-        <v>1438.914018407479</v>
+        <v>13556.82764415023</v>
       </c>
       <c r="S11">
-        <v>0.1184957142814777</v>
+        <v>0.1082706791661237</v>
       </c>
       <c r="T11">
-        <v>0.1184957142814777</v>
+        <v>0.1195721009593292</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.7235762397842</v>
+        <v>35.25263733333333</v>
       </c>
       <c r="H12">
-        <v>34.7235762397842</v>
+        <v>105.757912</v>
       </c>
       <c r="I12">
-        <v>0.2775682042486505</v>
+        <v>0.2648182598168894</v>
       </c>
       <c r="J12">
-        <v>0.2775682042486505</v>
+        <v>0.2803950511268952</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.39966390936868</v>
+        <v>8.898325</v>
       </c>
       <c r="N12">
-        <v>8.39966390936868</v>
+        <v>26.694975</v>
       </c>
       <c r="O12">
-        <v>0.08653353401758704</v>
+        <v>0.08514266611946943</v>
       </c>
       <c r="P12">
-        <v>0.08653353401758704</v>
+        <v>0.08880631053077227</v>
       </c>
       <c r="Q12">
-        <v>291.6663701455272</v>
+        <v>313.6894240991333</v>
       </c>
       <c r="R12">
-        <v>291.6663701455272</v>
+        <v>2823.2048168922</v>
       </c>
       <c r="S12">
-        <v>0.02401895764455114</v>
+        <v>0.02254733267792832</v>
       </c>
       <c r="T12">
-        <v>0.02401895764455114</v>
+        <v>0.02490084998166682</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.7235762397842</v>
+        <v>35.25263733333333</v>
       </c>
       <c r="H13">
-        <v>34.7235762397842</v>
+        <v>105.757912</v>
       </c>
       <c r="I13">
-        <v>0.2775682042486505</v>
+        <v>0.2648182598168894</v>
       </c>
       <c r="J13">
-        <v>0.2775682042486505</v>
+        <v>0.2803950511268952</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.9734189600097</v>
+        <v>5.159665</v>
       </c>
       <c r="N13">
-        <v>4.9734189600097</v>
+        <v>10.31933</v>
       </c>
       <c r="O13">
-        <v>0.05123627842772321</v>
+        <v>0.04936969984612972</v>
       </c>
       <c r="P13">
-        <v>0.05123627842772321</v>
+        <v>0.03432936814698325</v>
       </c>
       <c r="Q13">
-        <v>172.6948924302851</v>
+        <v>181.8917990064933</v>
       </c>
       <c r="R13">
-        <v>172.6948924302851</v>
+        <v>1091.35079403896</v>
       </c>
       <c r="S13">
-        <v>0.014221561795567</v>
+        <v>0.01307399800093422</v>
       </c>
       <c r="T13">
-        <v>0.014221561795567</v>
+        <v>0.009625784936727375</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.0546832194084</v>
+        <v>29.66513466666667</v>
       </c>
       <c r="H14">
-        <v>25.0546832194084</v>
+        <v>88.99540400000001</v>
       </c>
       <c r="I14">
-        <v>0.2002784327629845</v>
+        <v>0.2228448687506334</v>
       </c>
       <c r="J14">
-        <v>0.2002784327629845</v>
+        <v>0.2359527564674186</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.77455065173158</v>
+        <v>7.774898</v>
       </c>
       <c r="N14">
-        <v>7.77455065173158</v>
+        <v>15.549796</v>
       </c>
       <c r="O14">
-        <v>0.08009360261934967</v>
+        <v>0.07439327564760004</v>
       </c>
       <c r="P14">
-        <v>0.08009360261934967</v>
+        <v>0.05172958627105516</v>
       </c>
       <c r="Q14">
-        <v>194.7889037523799</v>
+        <v>230.6433961895974</v>
       </c>
       <c r="R14">
-        <v>194.7889037523799</v>
+        <v>1383.860377137584</v>
       </c>
       <c r="S14">
-        <v>0.01604102120694462</v>
+        <v>0.01657815974761912</v>
       </c>
       <c r="T14">
-        <v>0.01604102120694462</v>
+        <v>0.0122057384715746</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.0546832194084</v>
+        <v>29.66513466666667</v>
       </c>
       <c r="H15">
-        <v>25.0546832194084</v>
+        <v>88.99540400000001</v>
       </c>
       <c r="I15">
-        <v>0.2002784327629845</v>
+        <v>0.2228448687506334</v>
       </c>
       <c r="J15">
-        <v>0.2002784327629845</v>
+        <v>0.2359527564674186</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.520804291354764</v>
+        <v>0.5569553333333334</v>
       </c>
       <c r="N15">
-        <v>0.520804291354764</v>
+        <v>1.670866</v>
       </c>
       <c r="O15">
-        <v>0.005365337988367207</v>
+        <v>0.005329167229726696</v>
       </c>
       <c r="P15">
-        <v>0.005365337988367207</v>
+        <v>0.005558478509581273</v>
       </c>
       <c r="Q15">
-        <v>13.04858653920209</v>
+        <v>16.52215496665156</v>
       </c>
       <c r="R15">
-        <v>13.04858653920209</v>
+        <v>148.699394699864</v>
       </c>
       <c r="S15">
-        <v>0.001074561483553888</v>
+        <v>0.001187577571858623</v>
       </c>
       <c r="T15">
-        <v>0.001074561483553888</v>
+        <v>0.00131153832610061</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.0546832194084</v>
+        <v>29.66513466666667</v>
       </c>
       <c r="H16">
-        <v>25.0546832194084</v>
+        <v>88.99540400000001</v>
       </c>
       <c r="I16">
-        <v>0.2002784327629845</v>
+        <v>0.2228448687506334</v>
       </c>
       <c r="J16">
-        <v>0.2002784327629845</v>
+        <v>0.2359527564674186</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.9607644503482</v>
+        <v>39.39179933333333</v>
       </c>
       <c r="N16">
-        <v>33.9607644503482</v>
+        <v>118.175398</v>
       </c>
       <c r="O16">
-        <v>0.3498645895283616</v>
+        <v>0.3769161969789975</v>
       </c>
       <c r="P16">
-        <v>0.3498645895283616</v>
+        <v>0.3931347038866155</v>
       </c>
       <c r="Q16">
-        <v>850.8761951924204</v>
+        <v>1168.563031985644</v>
       </c>
       <c r="R16">
-        <v>850.8761951924204</v>
+        <v>10517.06728787079</v>
       </c>
       <c r="S16">
-        <v>0.07007033167000515</v>
+        <v>0.08399384044577261</v>
       </c>
       <c r="T16">
-        <v>0.07007033167000515</v>
+        <v>0.09276121704504933</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.0546832194084</v>
+        <v>29.66513466666667</v>
       </c>
       <c r="H17">
-        <v>25.0546832194084</v>
+        <v>88.99540400000001</v>
       </c>
       <c r="I17">
-        <v>0.2002784327629845</v>
+        <v>0.2228448687506334</v>
       </c>
       <c r="J17">
-        <v>0.2002784327629845</v>
+        <v>0.2359527564674186</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>41.4391077828803</v>
+        <v>42.72912033333333</v>
       </c>
       <c r="N17">
-        <v>41.4391077828803</v>
+        <v>128.187361</v>
       </c>
       <c r="O17">
-        <v>0.4269066574186113</v>
+        <v>0.4088489941780765</v>
       </c>
       <c r="P17">
-        <v>0.4269066574186113</v>
+        <v>0.4264415526549925</v>
       </c>
       <c r="Q17">
-        <v>1038.243718394987</v>
+        <v>1267.565108876538</v>
       </c>
       <c r="R17">
-        <v>1038.243718394987</v>
+        <v>11408.08597988885</v>
       </c>
       <c r="S17">
-        <v>0.08550019628388379</v>
+        <v>0.09110990044644195</v>
       </c>
       <c r="T17">
-        <v>0.08550019628388379</v>
+        <v>0.1006200598211913</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>25.0546832194084</v>
+        <v>29.66513466666667</v>
       </c>
       <c r="H18">
-        <v>25.0546832194084</v>
+        <v>88.99540400000001</v>
       </c>
       <c r="I18">
-        <v>0.2002784327629845</v>
+        <v>0.2228448687506334</v>
       </c>
       <c r="J18">
-        <v>0.2002784327629845</v>
+        <v>0.2359527564674186</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.39966390936868</v>
+        <v>8.898325</v>
       </c>
       <c r="N18">
-        <v>8.39966390936868</v>
+        <v>26.694975</v>
       </c>
       <c r="O18">
-        <v>0.08653353401758704</v>
+        <v>0.08514266611946943</v>
       </c>
       <c r="P18">
-        <v>0.08653353401758704</v>
+        <v>0.08880631053077227</v>
       </c>
       <c r="Q18">
-        <v>210.4509183987298</v>
+        <v>263.9700094327667</v>
       </c>
       <c r="R18">
-        <v>210.4509183987298</v>
+        <v>2375.7300848949</v>
       </c>
       <c r="S18">
-        <v>0.01733080057448474</v>
+        <v>0.01897360625647217</v>
       </c>
       <c r="T18">
-        <v>0.01733080057448474</v>
+        <v>0.02095409376143726</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>25.0546832194084</v>
+        <v>29.66513466666667</v>
       </c>
       <c r="H19">
-        <v>25.0546832194084</v>
+        <v>88.99540400000001</v>
       </c>
       <c r="I19">
-        <v>0.2002784327629845</v>
+        <v>0.2228448687506334</v>
       </c>
       <c r="J19">
-        <v>0.2002784327629845</v>
+        <v>0.2359527564674186</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.9734189600097</v>
+        <v>5.159665</v>
       </c>
       <c r="N19">
-        <v>4.9734189600097</v>
+        <v>10.31933</v>
       </c>
       <c r="O19">
-        <v>0.05123627842772321</v>
+        <v>0.04936969984612972</v>
       </c>
       <c r="P19">
-        <v>0.05123627842772321</v>
+        <v>0.03432936814698325</v>
       </c>
       <c r="Q19">
-        <v>124.6074365604426</v>
+        <v>153.0621570598867</v>
       </c>
       <c r="R19">
-        <v>124.6074365604426</v>
+        <v>918.3729423593202</v>
       </c>
       <c r="S19">
-        <v>0.01026152154411232</v>
+        <v>0.01100178428246895</v>
       </c>
       <c r="T19">
-        <v>0.01026152154411232</v>
+        <v>0.008100109042065496</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.9711979334492</v>
+        <v>32.892914</v>
       </c>
       <c r="H20">
-        <v>30.9711979334492</v>
+        <v>98.678742</v>
       </c>
       <c r="I20">
-        <v>0.2475729957782262</v>
+        <v>0.2470919881375853</v>
       </c>
       <c r="J20">
-        <v>0.2475729957782262</v>
+        <v>0.2616261080138164</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.77455065173158</v>
+        <v>7.774898</v>
       </c>
       <c r="N20">
-        <v>7.77455065173158</v>
+        <v>15.549796</v>
       </c>
       <c r="O20">
-        <v>0.08009360261934967</v>
+        <v>0.07439327564760004</v>
       </c>
       <c r="P20">
-        <v>0.08009360261934967</v>
+        <v>0.05172958627105516</v>
       </c>
       <c r="Q20">
-        <v>240.7871470784053</v>
+        <v>255.739051272772</v>
       </c>
       <c r="R20">
-        <v>240.7871470784053</v>
+        <v>1534.434307636632</v>
       </c>
       <c r="S20">
-        <v>0.01982901314314318</v>
+        <v>0.0183819823838329</v>
       </c>
       <c r="T20">
-        <v>0.01982901314314318</v>
+        <v>0.01353381032526111</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.9711979334492</v>
+        <v>32.892914</v>
       </c>
       <c r="H21">
-        <v>30.9711979334492</v>
+        <v>98.678742</v>
       </c>
       <c r="I21">
-        <v>0.2475729957782262</v>
+        <v>0.2470919881375853</v>
       </c>
       <c r="J21">
-        <v>0.2475729957782262</v>
+        <v>0.2616261080138164</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.520804291354764</v>
+        <v>0.5569553333333334</v>
       </c>
       <c r="N21">
-        <v>0.520804291354764</v>
+        <v>1.670866</v>
       </c>
       <c r="O21">
-        <v>0.005365337988367207</v>
+        <v>0.005329167229726696</v>
       </c>
       <c r="P21">
-        <v>0.005365337988367207</v>
+        <v>0.005558478509581273</v>
       </c>
       <c r="Q21">
-        <v>16.12993279213814</v>
+        <v>18.31988388117466</v>
       </c>
       <c r="R21">
-        <v>16.12993279213814</v>
+        <v>164.878954930572</v>
       </c>
       <c r="S21">
-        <v>0.001328312799142791</v>
+        <v>0.001316794525910837</v>
       </c>
       <c r="T21">
-        <v>0.001328312799142791</v>
+        <v>0.001454243098940187</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.9711979334492</v>
+        <v>32.892914</v>
       </c>
       <c r="H22">
-        <v>30.9711979334492</v>
+        <v>98.678742</v>
       </c>
       <c r="I22">
-        <v>0.2475729957782262</v>
+        <v>0.2470919881375853</v>
       </c>
       <c r="J22">
-        <v>0.2475729957782262</v>
+        <v>0.2616261080138164</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.9607644503482</v>
+        <v>39.39179933333333</v>
       </c>
       <c r="N22">
-        <v>33.9607644503482</v>
+        <v>118.175398</v>
       </c>
       <c r="O22">
-        <v>0.3498645895283616</v>
+        <v>0.3769161969789975</v>
       </c>
       <c r="P22">
-        <v>0.3498645895283616</v>
+        <v>0.3931347038866155</v>
       </c>
       <c r="Q22">
-        <v>1051.805557762979</v>
+        <v>1295.71106777659</v>
       </c>
       <c r="R22">
-        <v>1051.805557762979</v>
+        <v>11661.39960998932</v>
       </c>
       <c r="S22">
-        <v>0.08661702454625592</v>
+        <v>0.09313297247279824</v>
       </c>
       <c r="T22">
-        <v>0.08661702454625592</v>
+        <v>0.1028543025030194</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.9711979334492</v>
+        <v>32.892914</v>
       </c>
       <c r="H23">
-        <v>30.9711979334492</v>
+        <v>98.678742</v>
       </c>
       <c r="I23">
-        <v>0.2475729957782262</v>
+        <v>0.2470919881375853</v>
       </c>
       <c r="J23">
-        <v>0.2475729957782262</v>
+        <v>0.2616261080138164</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>41.4391077828803</v>
+        <v>42.72912033333333</v>
       </c>
       <c r="N23">
-        <v>41.4391077828803</v>
+        <v>128.187361</v>
       </c>
       <c r="O23">
-        <v>0.4269066574186113</v>
+        <v>0.4088489941780765</v>
       </c>
       <c r="P23">
-        <v>0.4269066574186113</v>
+        <v>0.4264415526549925</v>
       </c>
       <c r="Q23">
-        <v>1283.418809329121</v>
+        <v>1405.485280419985</v>
       </c>
       <c r="R23">
-        <v>1283.418809329121</v>
+        <v>12649.36752377986</v>
       </c>
       <c r="S23">
-        <v>0.1056905600947945</v>
+        <v>0.101023310819513</v>
       </c>
       <c r="T23">
-        <v>0.1056905600947945</v>
+        <v>0.1115682437164946</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.9711979334492</v>
+        <v>32.892914</v>
       </c>
       <c r="H24">
-        <v>30.9711979334492</v>
+        <v>98.678742</v>
       </c>
       <c r="I24">
-        <v>0.2475729957782262</v>
+        <v>0.2470919881375853</v>
       </c>
       <c r="J24">
-        <v>0.2475729957782262</v>
+        <v>0.2616261080138164</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.39966390936868</v>
+        <v>8.898325</v>
       </c>
       <c r="N24">
-        <v>8.39966390936868</v>
+        <v>26.694975</v>
       </c>
       <c r="O24">
-        <v>0.08653353401758704</v>
+        <v>0.08514266611946943</v>
       </c>
       <c r="P24">
-        <v>0.08653353401758704</v>
+        <v>0.08880631053077227</v>
       </c>
       <c r="Q24">
-        <v>260.1476535115071</v>
+        <v>292.69183896905</v>
       </c>
       <c r="R24">
-        <v>260.1476535115071</v>
+        <v>2634.22655072145</v>
       </c>
       <c r="S24">
-        <v>0.02142336625201107</v>
+        <v>0.02103807064679433</v>
       </c>
       <c r="T24">
-        <v>0.02142336625201107</v>
+        <v>0.02323404939123235</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.9711979334492</v>
+        <v>32.892914</v>
       </c>
       <c r="H25">
-        <v>30.9711979334492</v>
+        <v>98.678742</v>
       </c>
       <c r="I25">
-        <v>0.2475729957782262</v>
+        <v>0.2470919881375853</v>
       </c>
       <c r="J25">
-        <v>0.2475729957782262</v>
+        <v>0.2616261080138164</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.9734189600097</v>
+        <v>5.159665</v>
       </c>
       <c r="N25">
-        <v>4.9734189600097</v>
+        <v>10.31933</v>
       </c>
       <c r="O25">
-        <v>0.05123627842772321</v>
+        <v>0.04936969984612972</v>
       </c>
       <c r="P25">
-        <v>0.05123627842772321</v>
+        <v>0.03432936814698325</v>
       </c>
       <c r="Q25">
-        <v>154.0327430164295</v>
+        <v>169.71641711381</v>
       </c>
       <c r="R25">
-        <v>154.0327430164295</v>
+        <v>1018.29850268286</v>
       </c>
       <c r="S25">
-        <v>0.01268471894287874</v>
+        <v>0.01219885728873604</v>
       </c>
       <c r="T25">
-        <v>0.01268471894287874</v>
+        <v>0.00898145897886871</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>12.6697546282229</v>
+        <v>13.123757</v>
       </c>
       <c r="H26">
-        <v>12.6697546282229</v>
+        <v>39.371271</v>
       </c>
       <c r="I26">
-        <v>0.1012776165721551</v>
+        <v>0.09858582942710861</v>
       </c>
       <c r="J26">
-        <v>0.1012776165721551</v>
+        <v>0.1043847153958169</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.77455065173158</v>
+        <v>7.774898</v>
       </c>
       <c r="N26">
-        <v>7.77455065173158</v>
+        <v>15.549796</v>
       </c>
       <c r="O26">
-        <v>0.08009360261934967</v>
+        <v>0.07439327564760004</v>
       </c>
       <c r="P26">
-        <v>0.08009360261934967</v>
+        <v>0.05172958627105516</v>
       </c>
       <c r="Q26">
-        <v>98.50164910212956</v>
+        <v>102.035872051786</v>
       </c>
       <c r="R26">
-        <v>98.50164910212956</v>
+        <v>612.215232310716</v>
       </c>
       <c r="S26">
-        <v>0.008111689175965052</v>
+        <v>0.007334122783518171</v>
       </c>
       <c r="T26">
-        <v>0.008111689175965052</v>
+        <v>0.005399778140447448</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>12.6697546282229</v>
+        <v>13.123757</v>
       </c>
       <c r="H27">
-        <v>12.6697546282229</v>
+        <v>39.371271</v>
       </c>
       <c r="I27">
-        <v>0.1012776165721551</v>
+        <v>0.09858582942710861</v>
       </c>
       <c r="J27">
-        <v>0.1012776165721551</v>
+        <v>0.1043847153958169</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.520804291354764</v>
+        <v>0.5569553333333334</v>
       </c>
       <c r="N27">
-        <v>0.520804291354764</v>
+        <v>1.670866</v>
       </c>
       <c r="O27">
-        <v>0.005365337988367207</v>
+        <v>0.005329167229726696</v>
       </c>
       <c r="P27">
-        <v>0.005365337988367207</v>
+        <v>0.005558478509581273</v>
       </c>
       <c r="Q27">
-        <v>6.598462580790369</v>
+        <v>7.309346454520667</v>
       </c>
       <c r="R27">
-        <v>6.598462580790369</v>
+        <v>65.78411809068601</v>
       </c>
       <c r="S27">
-        <v>0.0005433886435658718</v>
+        <v>0.000525380371498373</v>
       </c>
       <c r="T27">
-        <v>0.0005433886435658718</v>
+        <v>0.0005802201972564054</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>12.6697546282229</v>
+        <v>13.123757</v>
       </c>
       <c r="H28">
-        <v>12.6697546282229</v>
+        <v>39.371271</v>
       </c>
       <c r="I28">
-        <v>0.1012776165721551</v>
+        <v>0.09858582942710861</v>
       </c>
       <c r="J28">
-        <v>0.1012776165721551</v>
+        <v>0.1043847153958169</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>33.9607644503482</v>
+        <v>39.39179933333333</v>
       </c>
       <c r="N28">
-        <v>33.9607644503482</v>
+        <v>118.175398</v>
       </c>
       <c r="O28">
-        <v>0.3498645895283616</v>
+        <v>0.3769161969789975</v>
       </c>
       <c r="P28">
-        <v>0.3498645895283616</v>
+        <v>0.3931347038866155</v>
       </c>
       <c r="Q28">
-        <v>430.2745525727869</v>
+        <v>516.9684022434286</v>
       </c>
       <c r="R28">
-        <v>430.2745525727869</v>
+        <v>4652.715620190858</v>
       </c>
       <c r="S28">
-        <v>0.03543345175042783</v>
+        <v>0.03715859590368592</v>
       </c>
       <c r="T28">
-        <v>0.03543345175042783</v>
+        <v>0.0410372541774231</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>12.6697546282229</v>
+        <v>13.123757</v>
       </c>
       <c r="H29">
-        <v>12.6697546282229</v>
+        <v>39.371271</v>
       </c>
       <c r="I29">
-        <v>0.1012776165721551</v>
+        <v>0.09858582942710861</v>
       </c>
       <c r="J29">
-        <v>0.1012776165721551</v>
+        <v>0.1043847153958169</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>41.4391077828803</v>
+        <v>42.72912033333333</v>
       </c>
       <c r="N29">
-        <v>41.4391077828803</v>
+        <v>128.187361</v>
       </c>
       <c r="O29">
-        <v>0.4269066574186113</v>
+        <v>0.4088489941780765</v>
       </c>
       <c r="P29">
-        <v>0.4269066574186113</v>
+        <v>0.4264415526549925</v>
       </c>
       <c r="Q29">
-        <v>525.0233276215753</v>
+        <v>560.7665920784257</v>
       </c>
       <c r="R29">
-        <v>525.0233276215753</v>
+        <v>5046.899328705831</v>
       </c>
       <c r="S29">
-        <v>0.04323608876214247</v>
+        <v>0.04030671720148477</v>
       </c>
       <c r="T29">
-        <v>0.04323608876214247</v>
+        <v>0.04451398010684163</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>12.6697546282229</v>
+        <v>13.123757</v>
       </c>
       <c r="H30">
-        <v>12.6697546282229</v>
+        <v>39.371271</v>
       </c>
       <c r="I30">
-        <v>0.1012776165721551</v>
+        <v>0.09858582942710861</v>
       </c>
       <c r="J30">
-        <v>0.1012776165721551</v>
+        <v>0.1043847153958169</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.39966390936868</v>
+        <v>8.898325</v>
       </c>
       <c r="N30">
-        <v>8.39966390936868</v>
+        <v>26.694975</v>
       </c>
       <c r="O30">
-        <v>0.08653353401758704</v>
+        <v>0.08514266611946943</v>
       </c>
       <c r="P30">
-        <v>0.08653353401758704</v>
+        <v>0.08880631053077227</v>
       </c>
       <c r="Q30">
-        <v>106.4216806912407</v>
+        <v>116.779455007025</v>
       </c>
       <c r="R30">
-        <v>106.4216806912407</v>
+        <v>1051.015095063225</v>
       </c>
       <c r="S30">
-        <v>0.008763910078866718</v>
+        <v>0.008393860359023272</v>
       </c>
       <c r="T30">
-        <v>0.008763910078866718</v>
+        <v>0.009270021450107196</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>12.6697546282229</v>
+        <v>13.123757</v>
       </c>
       <c r="H31">
-        <v>12.6697546282229</v>
+        <v>39.371271</v>
       </c>
       <c r="I31">
-        <v>0.1012776165721551</v>
+        <v>0.09858582942710861</v>
       </c>
       <c r="J31">
-        <v>0.1012776165721551</v>
+        <v>0.1043847153958169</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.9734189600097</v>
+        <v>5.159665</v>
       </c>
       <c r="N31">
-        <v>4.9734189600097</v>
+        <v>10.31933</v>
       </c>
       <c r="O31">
-        <v>0.05123627842772321</v>
+        <v>0.04936969984612972</v>
       </c>
       <c r="P31">
-        <v>0.05123627842772321</v>
+        <v>0.03432936814698325</v>
       </c>
       <c r="Q31">
-        <v>63.01199788667442</v>
+        <v>67.714189661405</v>
       </c>
       <c r="R31">
-        <v>63.01199788667442</v>
+        <v>406.28513796843</v>
       </c>
       <c r="S31">
-        <v>0.005189088161187131</v>
+        <v>0.004867152807898095</v>
       </c>
       <c r="T31">
-        <v>0.005189088161187131</v>
+        <v>0.003583461323741067</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.53463747831224</v>
+        <v>4.534637500000001</v>
       </c>
       <c r="H32">
-        <v>4.53463747831224</v>
+        <v>9.069275000000001</v>
       </c>
       <c r="I32">
-        <v>0.03624831650639852</v>
+        <v>0.03406425454911809</v>
       </c>
       <c r="J32">
-        <v>0.03624831650639852</v>
+        <v>0.02404529154574149</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>7.77455065173158</v>
+        <v>7.774898</v>
       </c>
       <c r="N32">
-        <v>7.77455065173158</v>
+        <v>15.549796</v>
       </c>
       <c r="O32">
-        <v>0.08009360261934967</v>
+        <v>0.07439327564760004</v>
       </c>
       <c r="P32">
-        <v>0.08009360261934967</v>
+        <v>0.05172958627105516</v>
       </c>
       <c r="Q32">
-        <v>35.25476876237887</v>
+        <v>35.256344029475</v>
       </c>
       <c r="R32">
-        <v>35.25476876237887</v>
+        <v>141.0253761179</v>
       </c>
       <c r="S32">
-        <v>0.002903258257883896</v>
+        <v>0.002534151478402556</v>
       </c>
       <c r="T32">
-        <v>0.002903258257883896</v>
+        <v>0.001243852983428108</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.53463747831224</v>
+        <v>4.534637500000001</v>
       </c>
       <c r="H33">
-        <v>4.53463747831224</v>
+        <v>9.069275000000001</v>
       </c>
       <c r="I33">
-        <v>0.03624831650639852</v>
+        <v>0.03406425454911809</v>
       </c>
       <c r="J33">
-        <v>0.03624831650639852</v>
+        <v>0.02404529154574149</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.520804291354764</v>
+        <v>0.5569553333333334</v>
       </c>
       <c r="N33">
-        <v>0.520804291354764</v>
+        <v>1.670866</v>
       </c>
       <c r="O33">
-        <v>0.005365337988367207</v>
+        <v>0.005329167229726696</v>
       </c>
       <c r="P33">
-        <v>0.005365337988367207</v>
+        <v>0.005558478509581273</v>
       </c>
       <c r="Q33">
-        <v>2.36165865844316</v>
+        <v>2.525590540358334</v>
       </c>
       <c r="R33">
-        <v>2.36165865844316</v>
+        <v>15.15354324215</v>
       </c>
       <c r="S33">
-        <v>0.000194484469566138</v>
+        <v>0.0001815341090482286</v>
       </c>
       <c r="T33">
-        <v>0.000194484469566138</v>
+        <v>0.0001336552363136203</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.53463747831224</v>
+        <v>4.534637500000001</v>
       </c>
       <c r="H34">
-        <v>4.53463747831224</v>
+        <v>9.069275000000001</v>
       </c>
       <c r="I34">
-        <v>0.03624831650639852</v>
+        <v>0.03406425454911809</v>
       </c>
       <c r="J34">
-        <v>0.03624831650639852</v>
+        <v>0.02404529154574149</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>33.9607644503482</v>
+        <v>39.39179933333333</v>
       </c>
       <c r="N34">
-        <v>33.9607644503482</v>
+        <v>118.175398</v>
       </c>
       <c r="O34">
-        <v>0.3498645895283616</v>
+        <v>0.3769161969789975</v>
       </c>
       <c r="P34">
-        <v>0.3498645895283616</v>
+        <v>0.3931347038866155</v>
       </c>
       <c r="Q34">
-        <v>153.9997552686829</v>
+        <v>178.6275304494083</v>
       </c>
       <c r="R34">
-        <v>153.9997552686829</v>
+        <v>1071.76518269645</v>
       </c>
       <c r="S34">
-        <v>0.01268200237560525</v>
+        <v>0.01283936927757811</v>
       </c>
       <c r="T34">
-        <v>0.01268200237560525</v>
+        <v>0.009453038571702418</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.53463747831224</v>
+        <v>4.534637500000001</v>
       </c>
       <c r="H35">
-        <v>4.53463747831224</v>
+        <v>9.069275000000001</v>
       </c>
       <c r="I35">
-        <v>0.03624831650639852</v>
+        <v>0.03406425454911809</v>
       </c>
       <c r="J35">
-        <v>0.03624831650639852</v>
+        <v>0.02404529154574149</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>41.4391077828803</v>
+        <v>42.72912033333333</v>
       </c>
       <c r="N35">
-        <v>41.4391077828803</v>
+        <v>128.187361</v>
       </c>
       <c r="O35">
-        <v>0.4269066574186113</v>
+        <v>0.4088489941780765</v>
       </c>
       <c r="P35">
-        <v>0.4269066574186113</v>
+        <v>0.4264415526549925</v>
       </c>
       <c r="Q35">
-        <v>187.9113312200694</v>
+        <v>193.7610714055459</v>
       </c>
       <c r="R35">
-        <v>187.9113312200694</v>
+        <v>1162.566428433275</v>
       </c>
       <c r="S35">
-        <v>0.01547464763679846</v>
+        <v>0.0139271362098329</v>
       </c>
       <c r="T35">
-        <v>0.01547464763679846</v>
+        <v>0.01025391146080796</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.53463747831224</v>
+        <v>4.534637500000001</v>
       </c>
       <c r="H36">
-        <v>4.53463747831224</v>
+        <v>9.069275000000001</v>
       </c>
       <c r="I36">
-        <v>0.03624831650639852</v>
+        <v>0.03406425454911809</v>
       </c>
       <c r="J36">
-        <v>0.03624831650639852</v>
+        <v>0.02404529154574149</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>8.39966390936868</v>
+        <v>8.898325</v>
       </c>
       <c r="N36">
-        <v>8.39966390936868</v>
+        <v>26.694975</v>
       </c>
       <c r="O36">
-        <v>0.08653353401758704</v>
+        <v>0.08514266611946943</v>
       </c>
       <c r="P36">
-        <v>0.08653353401758704</v>
+        <v>0.08880631053077227</v>
       </c>
       <c r="Q36">
-        <v>38.08943076864992</v>
+        <v>40.35067823218751</v>
       </c>
       <c r="R36">
-        <v>38.08943076864992</v>
+        <v>242.104069393125</v>
       </c>
       <c r="S36">
-        <v>0.003136694929486698</v>
+        <v>0.002900321451684179</v>
       </c>
       <c r="T36">
-        <v>0.003136694929486698</v>
+        <v>0.002135373627814072</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.53463747831224</v>
+        <v>4.534637500000001</v>
       </c>
       <c r="H37">
-        <v>4.53463747831224</v>
+        <v>9.069275000000001</v>
       </c>
       <c r="I37">
-        <v>0.03624831650639852</v>
+        <v>0.03406425454911809</v>
       </c>
       <c r="J37">
-        <v>0.03624831650639852</v>
+        <v>0.02404529154574149</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4.9734189600097</v>
+        <v>5.159665</v>
       </c>
       <c r="N37">
-        <v>4.9734189600097</v>
+        <v>10.31933</v>
       </c>
       <c r="O37">
-        <v>0.05123627842772321</v>
+        <v>0.04936969984612972</v>
       </c>
       <c r="P37">
-        <v>0.05123627842772321</v>
+        <v>0.03432936814698325</v>
       </c>
       <c r="Q37">
-        <v>22.55265201140867</v>
+        <v>23.3972103964375</v>
       </c>
       <c r="R37">
-        <v>22.55265201140867</v>
+        <v>93.58884158575002</v>
       </c>
       <c r="S37">
-        <v>0.001857228837058069</v>
+        <v>0.001681742022572119</v>
       </c>
       <c r="T37">
-        <v>0.001857228837058069</v>
+        <v>0.0008254596656753035</v>
       </c>
     </row>
   </sheetData>
